--- a/nr-prepare-release/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
+++ b/nr-prepare-release/ig/StructureDefinition-pdsm-folder-comprehensive.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T07:36:34+00:00</t>
+    <t>2024-05-29T09:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
